--- a/AAII_Financials/Yearly/VXEL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VXEL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>VXEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,56 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42308</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41943</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,19 +722,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -739,24 +742,27 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,9 +775,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,14 +788,14 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,18 +889,21 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,12 +919,15 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,9 +955,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,28 +970,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -974,9 +1000,12 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,19 +1013,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,8 +1051,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,19 +1061,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1048,26 +1081,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1078,9 +1114,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,29 +1147,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1138,9 +1180,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1168,9 +1213,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,29 +1246,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1228,29 +1279,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1258,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,9 +1444,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1388,19 +1457,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1408,29 +1477,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1438,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,29 +1543,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1498,44 +1576,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42308</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41943</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,28 +1647,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1591,9 +1677,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,24 +1710,27 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,9 +1743,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1664,11 +1759,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1681,20 +1776,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1702,8 +1800,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1711,29 +1809,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1741,9 +1842,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,9 +1875,12 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1781,16 +1888,16 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1801,9 +1908,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1831,9 +1941,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,9 +2007,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1921,9 +2040,12 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,29 +2073,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1981,9 +2106,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,8 +2139,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2024,8 +2154,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2039,9 +2169,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2069,29 +2202,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2099,29 +2235,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2129,9 +2268,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2159,9 +2301,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,29 +2433,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2309,9 +2466,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,29 +2613,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2473,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,29 +2745,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2593,9 +2778,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,64 +2811,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42308</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41943</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2688,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,8 +2900,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2712,7 +2910,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2720,8 +2918,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,29 +3095,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,8 +3146,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2936,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,26 +3242,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,29 +3422,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3210,9 +3455,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3220,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3240,29 +3488,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3270,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VXEL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VXEL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>VXEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42308</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41943</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,22 +725,22 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -745,27 +748,30 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,9 +784,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,14 +800,14 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,9 +908,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,11 +921,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,12 +941,15 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,31 +996,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1029,12 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1013,22 +1042,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1036,9 +1065,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,8 +1084,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1061,22 +1094,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1084,29 +1117,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1117,9 +1153,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1150,32 +1189,35 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1183,9 +1225,12 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1216,9 +1261,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,32 +1297,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1282,32 +1333,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1315,9 +1369,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,9 +1513,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1457,22 +1526,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1480,32 +1549,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1513,9 +1585,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,32 +1621,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1579,47 +1657,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42308</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41943</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,31 +1733,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1680,9 +1766,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,9 +1802,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1723,17 +1815,17 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,9 +1838,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1762,11 +1857,11 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,23 +1874,26 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1803,8 +1901,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1812,9 +1910,12 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1822,22 +1923,22 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1845,9 +1946,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,9 +1982,12 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1891,16 +1998,16 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1911,9 +2018,12 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1944,9 +2054,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,9 +2126,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2043,9 +2162,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,9 +2198,12 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2086,22 +2211,22 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2109,9 +2234,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,8 +2269,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,8 +2287,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2172,9 +2302,12 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2205,32 +2338,35 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2238,32 +2374,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2271,9 +2410,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2304,32 +2446,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2337,9 +2482,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,32 +2590,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2469,9 +2626,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,9 +2786,12 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2626,22 +2799,22 @@
         <v>-9600</v>
       </c>
       <c r="E72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2649,9 +2822,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,9 +2930,12 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2758,22 +2943,22 @@
         <v>-4700</v>
       </c>
       <c r="E76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2781,9 +2966,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,70 +3002,76 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42308</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41943</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2885,9 +3079,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,19 +3098,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2921,8 +3119,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2933,9 +3131,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,32 +3311,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3131,9 +3347,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,8 +3366,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3159,16 +3379,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3179,9 +3399,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,9 +3471,12 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3255,19 +3484,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3278,9 +3507,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,32 +3667,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3458,9 +3703,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3471,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3491,32 +3739,35 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3524,7 +3775,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
